--- a/01-Fully-Loaded-Cost-Predictor/updated_data/updated_data.xlsx
+++ b/01-Fully-Loaded-Cost-Predictor/updated_data/updated_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,5377 +436,5682 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>SAP Personnel #</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Current_Role</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Zip Code</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Employee Annual Salary$</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Monthly Medical contribution$</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Monthly Dental Contribution$</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Monthly Vision Contribution$</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Bonus $</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Years_Of_Service</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Department</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Gender</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Employee HR rate</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t># of Hours per week</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Years_Since_Last_Promotion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>left</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Senior Software Engineer</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>94103</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>130800</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>130</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>35</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>19</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>13865</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5.2</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>60</v>
       </c>
-      <c r="L2" t="n">
-        <v>40</v>
-      </c>
       <c r="M2" t="n">
+        <v>40</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.80082135523614</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>34</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Associate Data Scientist</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>94111</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>74250</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>105</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>30</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>17</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4344</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>1.7</v>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>117</v>
       </c>
-      <c r="L3" t="n">
-        <v>40</v>
-      </c>
       <c r="M3" t="n">
+        <v>40</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.56331279945243</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>29</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Associate Product Manager</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>10009</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>125850</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>130</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>35</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>19</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>15920</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>1.3</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>147</v>
       </c>
-      <c r="L4" t="n">
-        <v>40</v>
-      </c>
       <c r="M4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.245722108145106</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>31</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>60605</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>84750</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>105</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>30</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>17</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>5890</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>3.9</v>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>153</v>
       </c>
-      <c r="L5" t="n">
-        <v>40</v>
-      </c>
       <c r="M5" t="n">
+        <v>40</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.297056810403833</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>31</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Chief Operating Officer</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>2101</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>300000</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>230</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>55</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>27</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>90000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>15.2</v>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>79</v>
       </c>
-      <c r="L6" t="n">
-        <v>40</v>
-      </c>
       <c r="M6" t="n">
+        <v>40</v>
+      </c>
+      <c r="N6" t="n">
         <v>5.782340862422998</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>41</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>62</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Chief Technology Officer</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>98102</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>300000</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>230</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>55</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>27</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>90000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>14.7</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>70</v>
       </c>
-      <c r="L7" t="n">
-        <v>40</v>
-      </c>
       <c r="M7" t="n">
+        <v>40</v>
+      </c>
+      <c r="N7" t="n">
         <v>4.503764544832307</v>
       </c>
-      <c r="N7" t="n">
-        <v>40</v>
-      </c>
       <c r="O7" t="n">
+        <v>40</v>
+      </c>
+      <c r="P7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>63</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Content Strategist</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>60605</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>97700</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>105</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>30</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>17</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>7767</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>5.9</v>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>73</v>
       </c>
-      <c r="L8" t="n">
-        <v>40</v>
-      </c>
       <c r="M8" t="n">
+        <v>40</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.872689938398357</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>33</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>64</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Content Strategist</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>10005</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>89300</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>105</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>30</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>17</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>5849</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>3.1</v>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>113</v>
       </c>
-      <c r="L9" t="n">
-        <v>40</v>
-      </c>
       <c r="M9" t="n">
+        <v>40</v>
+      </c>
+      <c r="N9" t="n">
         <v>2.16290212183436</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>26</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>65</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Content Writer</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>10005</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>89600</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>105</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>30</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>17</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>5914</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>3.2</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>93</v>
       </c>
-      <c r="L10" t="n">
-        <v>40</v>
-      </c>
       <c r="M10" t="n">
+        <v>40</v>
+      </c>
+      <c r="N10" t="n">
         <v>2.261464750171116</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>34</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>66</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Customer Success Manager</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>10002</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>129450</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>130</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>35</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>19</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>16893</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>2.1</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Customer Support</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>80</v>
       </c>
-      <c r="L11" t="n">
-        <v>40</v>
-      </c>
       <c r="M11" t="n">
+        <v>40</v>
+      </c>
+      <c r="N11" t="n">
         <v>1.508555783709788</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>29</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>67</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Customer Support Specialist</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>10003</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>93400</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>105</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>30</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>17</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5978</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.8</v>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Customer Support</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>141</v>
       </c>
-      <c r="L12" t="n">
-        <v>40</v>
-      </c>
       <c r="M12" t="n">
+        <v>40</v>
+      </c>
+      <c r="N12" t="n">
         <v>1.801505817932923</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>27</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>68</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Data Analyst</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>94104</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>84500</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>105</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>30</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>17</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>5831</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>3.8</v>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>81</v>
       </c>
-      <c r="L13" t="n">
-        <v>40</v>
-      </c>
       <c r="M13" t="n">
+        <v>40</v>
+      </c>
+      <c r="N13" t="n">
         <v>2.967830253251198</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>31</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>69</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Data Analyst</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>94104</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>80750</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>105</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>30</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>17</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>4966</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>2.3</v>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>101</v>
       </c>
-      <c r="L14" t="n">
-        <v>40</v>
-      </c>
       <c r="M14" t="n">
+        <v>40</v>
+      </c>
+      <c r="N14" t="n">
         <v>1.828884325804244</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>31</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>70</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Data Analyst</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>94102</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>83000</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>105</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>30</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>17</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>5478</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>3.2</v>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>129</v>
       </c>
-      <c r="L15" t="n">
-        <v>40</v>
-      </c>
       <c r="M15" t="n">
+        <v>40</v>
+      </c>
+      <c r="N15" t="n">
         <v>1.976728268309377</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>34</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>71</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Data Scientist</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>94102</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>91400</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>105</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>30</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>17</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>6307</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>3.8</v>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>139</v>
       </c>
-      <c r="L16" t="n">
-        <v>40</v>
-      </c>
       <c r="M16" t="n">
+        <v>40</v>
+      </c>
+      <c r="N16" t="n">
         <v>2.409308692676249</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>26</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>72</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Design Director</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>78701</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>215200</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>180</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>45</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>23</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>48635</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>69</v>
       </c>
-      <c r="L17" t="n">
-        <v>40</v>
-      </c>
       <c r="M17" t="n">
+        <v>40</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.052703627652293</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>34</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>73</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Design Director</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>78702</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>217600</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>180</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>45</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>23</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>49613</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>9.6</v>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>150</v>
       </c>
-      <c r="L18" t="n">
-        <v>40</v>
-      </c>
       <c r="M18" t="n">
+        <v>40</v>
+      </c>
+      <c r="N18" t="n">
         <v>5.374401095140315</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>33</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>74</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>94112</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>92600</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>105</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>30</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>17</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>6575</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>4.2</v>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>78</v>
       </c>
-      <c r="L19" t="n">
-        <v>40</v>
-      </c>
       <c r="M19" t="n">
+        <v>40</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.735797399041752</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>28</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>75</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Design Director</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>78702</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>218200</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>180</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>45</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>23</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>49859</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>9.699999999999999</v>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>110</v>
       </c>
-      <c r="L20" t="n">
-        <v>40</v>
-      </c>
       <c r="M20" t="n">
+        <v>40</v>
+      </c>
+      <c r="N20" t="n">
         <v>4.80766598220397</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>38</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>76</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Director of HR</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>2108</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>220000</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>180</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>45</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>23</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>50600</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>11.5</v>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>76</v>
       </c>
-      <c r="L21" t="n">
-        <v>40</v>
-      </c>
       <c r="M21" t="n">
+        <v>40</v>
+      </c>
+      <c r="N21" t="n">
         <v>5.467488021902806</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>33</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>77</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Director of Operations</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>98106</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>211000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>180</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>23</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>46948</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>8.5</v>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>64</v>
       </c>
-      <c r="L22" t="n">
-        <v>40</v>
-      </c>
       <c r="M22" t="n">
+        <v>40</v>
+      </c>
+      <c r="N22" t="n">
         <v>5.226557152635182</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>36</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>78</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Director of Product</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>10010</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>213400</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>180</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>45</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>23</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>47908</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>8.9</v>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>138</v>
       </c>
-      <c r="L23" t="n">
-        <v>40</v>
-      </c>
       <c r="M23" t="n">
+        <v>40</v>
+      </c>
+      <c r="N23" t="n">
         <v>4.974674880219028</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>38</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>79</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Engineering Manager</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>94104</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>155100</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>155</v>
       </c>
-      <c r="E24" t="n">
-        <v>40</v>
-      </c>
       <c r="F24" t="n">
+        <v>40</v>
+      </c>
+      <c r="G24" t="n">
         <v>21</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>24661</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>7.8</v>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>71</v>
       </c>
-      <c r="L24" t="n">
-        <v>40</v>
-      </c>
       <c r="M24" t="n">
+        <v>40</v>
+      </c>
+      <c r="N24" t="n">
         <v>3.808350444900753</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>34</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>80</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Financial Analyst</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="C25" t="n">
         <v>60605</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>80750</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>105</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>30</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>17</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>4966</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>2.3</v>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>63</v>
       </c>
-      <c r="L25" t="n">
-        <v>40</v>
-      </c>
       <c r="M25" t="n">
+        <v>40</v>
+      </c>
+      <c r="N25" t="n">
         <v>2.381930184804928</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>29</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>81</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Financial Analyst</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="C26" t="n">
         <v>60601</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>84750</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>105</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>30</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>17</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>5890</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>3.9</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>109</v>
       </c>
-      <c r="L26" t="n">
-        <v>40</v>
-      </c>
       <c r="M26" t="n">
+        <v>40</v>
+      </c>
+      <c r="N26" t="n">
         <v>2.625598904859685</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>31</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>82</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Financial Analyst</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="C27" t="n">
         <v>60605</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>84750</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>105</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>30</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>17</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>5890</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>3.9</v>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>123</v>
       </c>
-      <c r="L27" t="n">
-        <v>40</v>
-      </c>
       <c r="M27" t="n">
+        <v>40</v>
+      </c>
+      <c r="N27" t="n">
         <v>2.354551676933607</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>27</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>83</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Financial Analyst</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="C28" t="n">
         <v>60601</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>83000</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>105</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>30</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>17</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>5478</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>3.2</v>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>149</v>
       </c>
-      <c r="L28" t="n">
-        <v>40</v>
-      </c>
       <c r="M28" t="n">
+        <v>40</v>
+      </c>
+      <c r="N28" t="n">
         <v>2.135523613963039</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>26</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>84</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Financial Planning Analyst</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="C29" t="n">
         <v>60605</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>84000</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>105</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>30</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>17</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>5712</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>3.6</v>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>133</v>
       </c>
-      <c r="L29" t="n">
-        <v>40</v>
-      </c>
       <c r="M29" t="n">
+        <v>40</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.067077344284737</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>28</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>85</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>HR Business Partner</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="C30" t="n">
         <v>2107</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>92300</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>105</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>30</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>17</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>6507</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>4.1</v>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>65</v>
       </c>
-      <c r="L30" t="n">
-        <v>40</v>
-      </c>
       <c r="M30" t="n">
+        <v>40</v>
+      </c>
+      <c r="N30" t="n">
         <v>2.674880219028063</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>33</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>86</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>HR Business Partner</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="C31" t="n">
         <v>2107</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>93500</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>105</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>30</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>17</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>6779</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>4.5</v>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>105</v>
       </c>
-      <c r="L31" t="n">
-        <v>40</v>
-      </c>
       <c r="M31" t="n">
+        <v>40</v>
+      </c>
+      <c r="N31" t="n">
         <v>2.844626967830253</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>29</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>87</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HR Business Partner</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="C32" t="n">
         <v>2107</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>93800</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>105</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>30</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>17</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>6847</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>4.6</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>125</v>
       </c>
-      <c r="L32" t="n">
-        <v>40</v>
-      </c>
       <c r="M32" t="n">
+        <v>40</v>
+      </c>
+      <c r="N32" t="n">
         <v>3.033538672142368</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>30</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>88</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>HR Coordinator</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="C33" t="n">
         <v>2107</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>65800</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>105</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>30</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>17</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>4244</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>2.9</v>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>95</v>
       </c>
-      <c r="L33" t="n">
-        <v>40</v>
-      </c>
       <c r="M33" t="n">
+        <v>40</v>
+      </c>
+      <c r="N33" t="n">
         <v>1.971252566735113</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>26</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>89</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>HR Coordinator</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="C34" t="n">
         <v>2107</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>69000</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>105</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>30</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>17</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>5003</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>4.5</v>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>145</v>
       </c>
-      <c r="L34" t="n">
-        <v>40</v>
-      </c>
       <c r="M34" t="n">
+        <v>40</v>
+      </c>
+      <c r="N34" t="n">
         <v>2.707734428473648</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>32</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>90</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>HR Manager</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="C35" t="n">
         <v>2107</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>141600</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>130</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>35</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>19</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>20390</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>4.8</v>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>115</v>
       </c>
-      <c r="L35" t="n">
-        <v>40</v>
-      </c>
       <c r="M35" t="n">
+        <v>40</v>
+      </c>
+      <c r="N35" t="n">
         <v>3.222450376454483</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>30</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>91</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>HR Manager</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="C36" t="n">
         <v>2107</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>141600</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>130</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>35</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>19</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>20390</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>4.8</v>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>155</v>
       </c>
-      <c r="L36" t="n">
-        <v>40</v>
-      </c>
       <c r="M36" t="n">
+        <v>40</v>
+      </c>
+      <c r="N36" t="n">
         <v>2.661190965092402</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>34</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>92</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>HR Specialist</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="C37" t="n">
         <v>2107</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>99700</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>105</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>30</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>17</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>7428</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>4.9</v>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>135</v>
       </c>
-      <c r="L37" t="n">
-        <v>40</v>
-      </c>
       <c r="M37" t="n">
+        <v>40</v>
+      </c>
+      <c r="N37" t="n">
         <v>3.282683093771389</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>31</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>93</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Junior Data Analyst</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="C38" t="n">
         <v>94111</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>78000</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>105</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>30</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>17</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>4368</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>1.2</v>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>157</v>
       </c>
-      <c r="L38" t="n">
-        <v>40</v>
-      </c>
       <c r="M38" t="n">
+        <v>40</v>
+      </c>
+      <c r="N38" t="n">
         <v>1.14715947980835</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>23</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>94</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Junior Data Scientist</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="C39" t="n">
         <v>94110</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>64500</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>105</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>30</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>17</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>3806</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>1.8</v>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>66</v>
       </c>
-      <c r="L39" t="n">
-        <v>40</v>
-      </c>
       <c r="M39" t="n">
+        <v>40</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.311430527036276</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>31</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>95</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Junior Data Scientist</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="C40" t="n">
         <v>94111</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>64500</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>105</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>30</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>17</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>3806</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>1.8</v>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>87</v>
       </c>
-      <c r="L40" t="n">
-        <v>40</v>
-      </c>
       <c r="M40" t="n">
+        <v>40</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.368925393566051</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>25</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>96</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Junior Product Designer</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="C41" t="n">
         <v>78731</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>64750</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>105</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>30</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>17</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>3853</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>1.9</v>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>127</v>
       </c>
-      <c r="L41" t="n">
-        <v>40</v>
-      </c>
       <c r="M41" t="n">
+        <v>40</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.409993155373032</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>30</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>97</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Junior Software Engineer</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="C42" t="n">
         <v>94111</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>63750</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>105</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>30</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>17</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>3666</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>1.5</v>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>97</v>
       </c>
-      <c r="L42" t="n">
-        <v>40</v>
-      </c>
       <c r="M42" t="n">
+        <v>40</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.245722108145106</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>26</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>98</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Junior Software Engineer</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="C43" t="n">
         <v>94111</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>63750</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>105</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>30</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>17</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>3666</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>1.5</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>137</v>
       </c>
-      <c r="L43" t="n">
-        <v>40</v>
-      </c>
       <c r="M43" t="n">
+        <v>40</v>
+      </c>
+      <c r="N43" t="n">
         <v>1.262149212867899</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>30</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>99</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Junior UX Designer</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="C44" t="n">
         <v>78731</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>63000</v>
       </c>
-      <c r="D44" t="n">
+      <c r="E44" t="n">
         <v>105</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>30</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>17</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>3528</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>1.2</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>107</v>
       </c>
-      <c r="L44" t="n">
-        <v>40</v>
-      </c>
       <c r="M44" t="n">
+        <v>40</v>
+      </c>
+      <c r="N44" t="n">
         <v>1.382614647501711</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>28</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>100</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Lead Data Engineer</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="C45" t="n">
         <v>94108</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>146600</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>130</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>35</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>19</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>17519</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>7.9</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>144</v>
       </c>
-      <c r="L45" t="n">
-        <v>40</v>
-      </c>
       <c r="M45" t="n">
+        <v>40</v>
+      </c>
+      <c r="N45" t="n">
         <v>4.2217659137577</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>34</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>101</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Lead Data Scientist</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="C46" t="n">
         <v>94112</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>146200</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>130</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>35</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>19</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>17398</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>7.8</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Data Science</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>98</v>
       </c>
-      <c r="L46" t="n">
-        <v>40</v>
-      </c>
       <c r="M46" t="n">
+        <v>40</v>
+      </c>
+      <c r="N46" t="n">
         <v>3.693360711841205</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>33</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>102</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Lead DevOps Engineer</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="C47" t="n">
         <v>98106</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>146600</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>130</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>35</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>19</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>17519</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>7.9</v>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>114</v>
       </c>
-      <c r="L47" t="n">
-        <v>40</v>
-      </c>
       <c r="M47" t="n">
+        <v>40</v>
+      </c>
+      <c r="N47" t="n">
         <v>3.94798083504449</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>31</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>103</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Lead Product Manager</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="C48" t="n">
         <v>10010</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>153750</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>155</v>
       </c>
-      <c r="E48" t="n">
-        <v>40</v>
-      </c>
       <c r="F48" t="n">
+        <v>40</v>
+      </c>
+      <c r="G48" t="n">
         <v>21</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>18066</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>7.5</v>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>108</v>
       </c>
-      <c r="L48" t="n">
-        <v>40</v>
-      </c>
       <c r="M48" t="n">
+        <v>40</v>
+      </c>
+      <c r="N48" t="n">
         <v>4.26009582477755</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>34</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>104</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Lead Software Developer</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="C49" t="n">
         <v>94108</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>145400</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>130</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>35</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>19</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>17157</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>7.6</v>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>154</v>
       </c>
-      <c r="L49" t="n">
-        <v>40</v>
-      </c>
       <c r="M49" t="n">
+        <v>40</v>
+      </c>
+      <c r="N49" t="n">
         <v>3.865845311430527</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>36</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>105</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Lead Software Engineer</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="C50" t="n">
         <v>98106</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>144200</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>130</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>35</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>19</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>16799</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>7.3</v>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>124</v>
       </c>
-      <c r="L50" t="n">
-        <v>40</v>
-      </c>
       <c r="M50" t="n">
+        <v>40</v>
+      </c>
+      <c r="N50" t="n">
         <v>3.802874743326489</v>
       </c>
-      <c r="N50" t="n">
+      <c r="O50" t="n">
         <v>32</v>
       </c>
-      <c r="O50" t="n">
+      <c r="P50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>106</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Lead UX Designer</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="C51" t="n">
         <v>78704</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>141000</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>130</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>35</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>19</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>15863</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>6.5</v>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>92</v>
       </c>
-      <c r="L51" t="n">
-        <v>40</v>
-      </c>
       <c r="M51" t="n">
+        <v>40</v>
+      </c>
+      <c r="N51" t="n">
         <v>4.213552361396304</v>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>36</v>
       </c>
-      <c r="O51" t="n">
+      <c r="P51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>107</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Lead UX Designer</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="C52" t="n">
         <v>78712</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>145800</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>130</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>35</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>19</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>17277</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>7.7</v>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>134</v>
       </c>
-      <c r="L52" t="n">
-        <v>40</v>
-      </c>
       <c r="M52" t="n">
+        <v>40</v>
+      </c>
+      <c r="N52" t="n">
         <v>4.161533196440794</v>
       </c>
-      <c r="N52" t="n">
+      <c r="O52" t="n">
         <v>33</v>
       </c>
-      <c r="O52" t="n">
+      <c r="P52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>108</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Marketing Coordinator</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="C53" t="n">
         <v>10005</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>66800</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>105</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>30</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>17</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>4476</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>3.4</v>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>143</v>
       </c>
-      <c r="L53" t="n">
-        <v>40</v>
-      </c>
       <c r="M53" t="n">
+        <v>40</v>
+      </c>
+      <c r="N53" t="n">
         <v>1.867214236824093</v>
       </c>
-      <c r="N53" t="n">
+      <c r="O53" t="n">
         <v>30</v>
       </c>
-      <c r="O53" t="n">
+      <c r="P53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>109</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Marketing Manager</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="C54" t="n">
         <v>10003</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>136650</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>130</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>35</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>19</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>18926</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>3.7</v>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>61</v>
       </c>
-      <c r="L54" t="n">
-        <v>40</v>
-      </c>
       <c r="M54" t="n">
+        <v>40</v>
+      </c>
+      <c r="N54" t="n">
         <v>2.116358658453114</v>
       </c>
-      <c r="N54" t="n">
+      <c r="O54" t="n">
         <v>28</v>
       </c>
-      <c r="O54" t="n">
+      <c r="P54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>110</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Marketing Specialist</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="C55" t="n">
         <v>60601</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>92500</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>105</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>30</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>17</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>5781</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>2.5</v>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>89</v>
       </c>
-      <c r="L55" t="n">
-        <v>40</v>
-      </c>
       <c r="M55" t="n">
+        <v>40</v>
+      </c>
+      <c r="N55" t="n">
         <v>1.57700205338809</v>
       </c>
-      <c r="N55" t="n">
+      <c r="O55" t="n">
         <v>28</v>
       </c>
-      <c r="O55" t="n">
+      <c r="P55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>111</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Marketing Specialist</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="C56" t="n">
         <v>10005</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>96100</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>105</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>30</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>17</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>6583</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>3.7</v>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>103</v>
       </c>
-      <c r="L56" t="n">
-        <v>40</v>
-      </c>
       <c r="M56" t="n">
+        <v>40</v>
+      </c>
+      <c r="N56" t="n">
         <v>2.231348391512662</v>
       </c>
-      <c r="N56" t="n">
+      <c r="O56" t="n">
         <v>26</v>
       </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>112</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Operations Analyst</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="C57" t="n">
         <v>98101</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>85750</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>105</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>30</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>17</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>6131</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>4.3</v>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>99</v>
       </c>
-      <c r="L57" t="n">
-        <v>40</v>
-      </c>
       <c r="M57" t="n">
+        <v>40</v>
+      </c>
+      <c r="N57" t="n">
         <v>2.507871321013005</v>
       </c>
-      <c r="N57" t="n">
+      <c r="O57" t="n">
         <v>31</v>
       </c>
-      <c r="O57" t="n">
+      <c r="P57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>113</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Operations Analyst</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="C58" t="n">
         <v>98101</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>84000</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>105</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>30</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>17</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>5712</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>3.6</v>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>159</v>
       </c>
-      <c r="L58" t="n">
-        <v>40</v>
-      </c>
       <c r="M58" t="n">
+        <v>40</v>
+      </c>
+      <c r="N58" t="n">
         <v>2.20123203285421</v>
       </c>
-      <c r="N58" t="n">
+      <c r="O58" t="n">
         <v>27</v>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>114</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Operations Coordinator</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="C59" t="n">
         <v>98101</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>66800</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>105</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>30</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>17</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>4476</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>3.4</v>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>119</v>
       </c>
-      <c r="L59" t="n">
-        <v>40</v>
-      </c>
       <c r="M59" t="n">
+        <v>40</v>
+      </c>
+      <c r="N59" t="n">
         <v>1.708418891170431</v>
       </c>
-      <c r="N59" t="n">
+      <c r="O59" t="n">
         <v>33</v>
       </c>
-      <c r="O59" t="n">
+      <c r="P59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>115</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Principal Engineer</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="C60" t="n">
         <v>98106</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>189000</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>155</v>
       </c>
-      <c r="E60" t="n">
-        <v>40</v>
-      </c>
       <c r="F60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G60" t="n">
         <v>21</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>37611</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>84</v>
       </c>
-      <c r="L60" t="n">
-        <v>40</v>
-      </c>
       <c r="M60" t="n">
+        <v>40</v>
+      </c>
+      <c r="N60" t="n">
         <v>1.839835728952772</v>
       </c>
-      <c r="N60" t="n">
+      <c r="O60" t="n">
         <v>39</v>
       </c>
-      <c r="O60" t="n">
+      <c r="P60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>116</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Principal Engineer</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="C61" t="n">
         <v>98102</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>190000</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>155</v>
       </c>
-      <c r="E61" t="n">
-        <v>40</v>
-      </c>
       <c r="F61" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" t="n">
         <v>21</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>38000</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>10.1</v>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>140</v>
       </c>
-      <c r="L61" t="n">
-        <v>40</v>
-      </c>
       <c r="M61" t="n">
+        <v>40</v>
+      </c>
+      <c r="N61" t="n">
         <v>5.68104038329911</v>
       </c>
-      <c r="N61" t="n">
+      <c r="O61" t="n">
         <v>34</v>
       </c>
-      <c r="O61" t="n">
+      <c r="P61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>117</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Principal Product Designer</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="C62" t="n">
         <v>78704</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>179500</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>155</v>
       </c>
-      <c r="E62" t="n">
-        <v>40</v>
-      </c>
       <c r="F62" t="n">
+        <v>40</v>
+      </c>
+      <c r="G62" t="n">
         <v>21</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>34015</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>7.9</v>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>62</v>
       </c>
-      <c r="L62" t="n">
-        <v>40</v>
-      </c>
       <c r="M62" t="n">
+        <v>40</v>
+      </c>
+      <c r="N62" t="n">
         <v>3.561943874058864</v>
       </c>
-      <c r="N62" t="n">
+      <c r="O62" t="n">
         <v>33</v>
       </c>
-      <c r="O62" t="n">
+      <c r="P62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>118</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Principal Product Manager</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="C63" t="n">
         <v>10010</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>183000</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>155</v>
       </c>
-      <c r="E63" t="n">
-        <v>40</v>
-      </c>
       <c r="F63" t="n">
+        <v>40</v>
+      </c>
+      <c r="G63" t="n">
         <v>21</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>29829</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>8.6</v>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>118</v>
       </c>
-      <c r="L63" t="n">
-        <v>40</v>
-      </c>
       <c r="M63" t="n">
+        <v>40</v>
+      </c>
+      <c r="N63" t="n">
         <v>4.492813141683778</v>
       </c>
-      <c r="N63" t="n">
+      <c r="O63" t="n">
         <v>37</v>
       </c>
-      <c r="O63" t="n">
+      <c r="P63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>119</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Principal Software Engineer</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="C64" t="n">
         <v>98102</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>190000</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>155</v>
       </c>
-      <c r="E64" t="n">
-        <v>40</v>
-      </c>
       <c r="F64" t="n">
+        <v>40</v>
+      </c>
+      <c r="G64" t="n">
         <v>21</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>38000</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>10.2</v>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>100</v>
       </c>
-      <c r="L64" t="n">
-        <v>40</v>
-      </c>
       <c r="M64" t="n">
+        <v>40</v>
+      </c>
+      <c r="N64" t="n">
         <v>5.054072553045859</v>
       </c>
-      <c r="N64" t="n">
+      <c r="O64" t="n">
         <v>38</v>
       </c>
-      <c r="O64" t="n">
+      <c r="P64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>120</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Product Designer</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="C65" t="n">
         <v>78704</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>97700</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>105</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>30</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>17</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>7767</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>5.9</v>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>102</v>
       </c>
-      <c r="L65" t="n">
-        <v>40</v>
-      </c>
       <c r="M65" t="n">
+        <v>40</v>
+      </c>
+      <c r="N65" t="n">
         <v>3.359342915811088</v>
       </c>
-      <c r="N65" t="n">
+      <c r="O65" t="n">
         <v>35</v>
       </c>
-      <c r="O65" t="n">
+      <c r="P65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>121</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Product Director</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="C66" t="n">
         <v>10010</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>209200</v>
       </c>
-      <c r="D66" t="n">
+      <c r="E66" t="n">
         <v>180</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>45</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>23</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>46233</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>128</v>
       </c>
-      <c r="L66" t="n">
-        <v>40</v>
-      </c>
       <c r="M66" t="n">
+        <v>40</v>
+      </c>
+      <c r="N66" t="n">
         <v>4.848733744010952</v>
       </c>
-      <c r="N66" t="n">
+      <c r="O66" t="n">
         <v>38</v>
       </c>
-      <c r="O66" t="n">
+      <c r="P66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>122</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Product Lead</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="C67" t="n">
         <v>10010</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>147400</v>
       </c>
-      <c r="D67" t="n">
+      <c r="E67" t="n">
         <v>130</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>35</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>19</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>17762</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>8.1</v>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>158</v>
       </c>
-      <c r="L67" t="n">
-        <v>40</v>
-      </c>
       <c r="M67" t="n">
+        <v>40</v>
+      </c>
+      <c r="N67" t="n">
         <v>5.070499657768652</v>
       </c>
-      <c r="N67" t="n">
+      <c r="O67" t="n">
         <v>31</v>
       </c>
-      <c r="O67" t="n">
+      <c r="P67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>123</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Product Manager</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="C68" t="n">
         <v>10004</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>135750</v>
       </c>
-      <c r="D68" t="n">
+      <c r="E68" t="n">
         <v>130</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>35</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>19</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>18666</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>3.5</v>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>72</v>
       </c>
-      <c r="L68" t="n">
-        <v>40</v>
-      </c>
       <c r="M68" t="n">
+        <v>40</v>
+      </c>
+      <c r="N68" t="n">
         <v>2.576317590691307</v>
       </c>
-      <c r="N68" t="n">
+      <c r="O68" t="n">
         <v>30</v>
       </c>
-      <c r="O68" t="n">
+      <c r="P68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>124</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Product Marketing Manager</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="C69" t="n">
         <v>10005</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>145200</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>130</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>35</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>19</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>21490</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>5.6</v>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>83</v>
       </c>
-      <c r="L69" t="n">
-        <v>40</v>
-      </c>
       <c r="M69" t="n">
+        <v>40</v>
+      </c>
+      <c r="N69" t="n">
         <v>2.642026009582478</v>
       </c>
-      <c r="N69" t="n">
+      <c r="O69" t="n">
         <v>35</v>
       </c>
-      <c r="O69" t="n">
+      <c r="P69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>125</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="C70" t="n">
         <v>98103</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>141150</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>130</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>35</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>19</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>20255</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>4.7</v>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>91</v>
       </c>
-      <c r="L70" t="n">
-        <v>40</v>
-      </c>
       <c r="M70" t="n">
+        <v>40</v>
+      </c>
+      <c r="N70" t="n">
         <v>2.781656399726215</v>
       </c>
-      <c r="N70" t="n">
+      <c r="O70" t="n">
         <v>33</v>
       </c>
-      <c r="O70" t="n">
+      <c r="P70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>126</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Sales Director</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="C71" t="n">
         <v>90010</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>209800</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>180</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>45</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>23</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>46471</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>77</v>
       </c>
-      <c r="L71" t="n">
-        <v>40</v>
-      </c>
       <c r="M71" t="n">
+        <v>40</v>
+      </c>
+      <c r="N71" t="n">
         <v>3.222450376454483</v>
       </c>
-      <c r="N71" t="n">
+      <c r="O71" t="n">
         <v>31</v>
       </c>
-      <c r="O71" t="n">
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>127</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Sales Representative</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="C72" t="n">
         <v>90008</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>97100</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>105</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>30</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>17</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>7622</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>5.7</v>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>96</v>
       </c>
-      <c r="L72" t="n">
-        <v>40</v>
-      </c>
       <c r="M72" t="n">
+        <v>40</v>
+      </c>
+      <c r="N72" t="n">
         <v>3.370294318959617</v>
       </c>
-      <c r="N72" t="n">
+      <c r="O72" t="n">
         <v>30</v>
       </c>
-      <c r="O72" t="n">
+      <c r="P72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>128</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Senior Account Executive</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="C73" t="n">
         <v>90008</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>135200</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>130</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>35</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>19</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>15075</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>6.3</v>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>116</v>
       </c>
-      <c r="L73" t="n">
-        <v>40</v>
-      </c>
       <c r="M73" t="n">
+        <v>40</v>
+      </c>
+      <c r="N73" t="n">
         <v>3.597535934291581</v>
       </c>
-      <c r="N73" t="n">
+      <c r="O73" t="n">
         <v>33</v>
       </c>
-      <c r="O73" t="n">
+      <c r="P73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>129</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Senior Account Executive</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="C74" t="n">
         <v>90008</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>136000</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>130</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>35</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>19</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>15300</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>6.5</v>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>156</v>
       </c>
-      <c r="L74" t="n">
-        <v>40</v>
-      </c>
       <c r="M74" t="n">
+        <v>40</v>
+      </c>
+      <c r="N74" t="n">
         <v>3.79192334017796</v>
       </c>
-      <c r="N74" t="n">
+      <c r="O74" t="n">
         <v>36</v>
       </c>
-      <c r="O74" t="n">
+      <c r="P74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>130</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Senior Account Manager</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="C75" t="n">
         <v>90011</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>136000</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>130</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>35</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>19</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>15300</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>6.5</v>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>68</v>
       </c>
-      <c r="L75" t="n">
-        <v>40</v>
-      </c>
       <c r="M75" t="n">
+        <v>40</v>
+      </c>
+      <c r="N75" t="n">
         <v>5.598904859685147</v>
       </c>
-      <c r="N75" t="n">
+      <c r="O75" t="n">
         <v>30</v>
       </c>
-      <c r="O75" t="n">
+      <c r="P75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>131</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Senior Account Manager</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="C76" t="n">
         <v>90008</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>135200</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>130</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>35</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>19</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>15075</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>6.3</v>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>136</v>
       </c>
-      <c r="L76" t="n">
-        <v>40</v>
-      </c>
       <c r="M76" t="n">
+        <v>40</v>
+      </c>
+      <c r="N76" t="n">
         <v>3.876796714579056</v>
       </c>
-      <c r="N76" t="n">
+      <c r="O76" t="n">
         <v>34</v>
       </c>
-      <c r="O76" t="n">
+      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>132</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Senior Business Analyst</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="C77" t="n">
         <v>60604</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>131600</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>130</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>35</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>19</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>14081</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>5.4</v>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>112</v>
       </c>
-      <c r="L77" t="n">
-        <v>40</v>
-      </c>
       <c r="M77" t="n">
+        <v>40</v>
+      </c>
+      <c r="N77" t="n">
         <v>2.535249828884326</v>
       </c>
-      <c r="N77" t="n">
+      <c r="O77" t="n">
         <v>27</v>
       </c>
-      <c r="O77" t="n">
+      <c r="P77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>133</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Senior Content Writer</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="C78" t="n">
         <v>10004</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>130400</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>130</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>35</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>19</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>13757</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>5.1</v>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>132</v>
       </c>
-      <c r="L78" t="n">
-        <v>40</v>
-      </c>
       <c r="M78" t="n">
+        <v>40</v>
+      </c>
+      <c r="N78" t="n">
         <v>2.781656399726215</v>
       </c>
-      <c r="N78" t="n">
+      <c r="O78" t="n">
         <v>29</v>
       </c>
-      <c r="O78" t="n">
+      <c r="P78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>134</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Senior DevOps Engineer</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="C79" t="n">
         <v>94108</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>143600</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>130</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>35</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>19</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>17519</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>8.4</v>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>94</v>
       </c>
-      <c r="L79" t="n">
-        <v>40</v>
-      </c>
       <c r="M79" t="n">
+        <v>40</v>
+      </c>
+      <c r="N79" t="n">
         <v>4.555783709787817</v>
       </c>
-      <c r="N79" t="n">
+      <c r="O79" t="n">
         <v>31</v>
       </c>
-      <c r="O79" t="n">
+      <c r="P79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>135</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Senior Financial Analyst</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="C80" t="n">
         <v>60607</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>134800</v>
       </c>
-      <c r="D80" t="n">
+      <c r="E80" t="n">
         <v>130</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>35</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>19</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>14963</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>6.2</v>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>75</v>
       </c>
-      <c r="L80" t="n">
-        <v>40</v>
-      </c>
       <c r="M80" t="n">
+        <v>40</v>
+      </c>
+      <c r="N80" t="n">
         <v>4.043805612594114</v>
       </c>
-      <c r="N80" t="n">
+      <c r="O80" t="n">
         <v>36</v>
       </c>
-      <c r="O80" t="n">
+      <c r="P80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>136</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Senior Financial Analyst</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="C81" t="n">
         <v>60602</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>146400</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>130</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>35</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>19</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>18373</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>9.1</v>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>90</v>
       </c>
-      <c r="L81" t="n">
-        <v>40</v>
-      </c>
       <c r="M81" t="n">
+        <v>40</v>
+      </c>
+      <c r="N81" t="n">
         <v>5.147159479808351</v>
       </c>
-      <c r="N81" t="n">
+      <c r="O81" t="n">
         <v>36</v>
       </c>
-      <c r="O81" t="n">
+      <c r="P81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" t="n">
+        <v>137</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Senior HR Manager</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="C82" t="n">
         <v>2104</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>139600</v>
       </c>
-      <c r="D82" t="n">
+      <c r="E82" t="n">
         <v>130</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>35</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>19</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>16333</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>7.4</v>
       </c>
-      <c r="I82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>82</v>
       </c>
-      <c r="L82" t="n">
-        <v>40</v>
-      </c>
       <c r="M82" t="n">
+        <v>40</v>
+      </c>
+      <c r="N82" t="n">
         <v>4.26009582477755</v>
       </c>
-      <c r="N82" t="n">
+      <c r="O82" t="n">
         <v>36</v>
       </c>
-      <c r="O82" t="n">
+      <c r="P82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" t="n">
+        <v>138</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Senior Marketing Manager</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="C83" t="n">
         <v>10004</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>133200</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>130</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>35</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>19</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>14519</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>5.8</v>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>122</v>
       </c>
-      <c r="L83" t="n">
-        <v>40</v>
-      </c>
       <c r="M83" t="n">
+        <v>40</v>
+      </c>
+      <c r="N83" t="n">
         <v>2.986995208761122</v>
       </c>
-      <c r="N83" t="n">
+      <c r="O83" t="n">
         <v>28</v>
       </c>
-      <c r="O83" t="n">
+      <c r="P83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" t="n">
+        <v>139</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Senior Marketing Specialist</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="C84" t="n">
         <v>10004</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>131600</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>130</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>35</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>19</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>14081</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>5.4</v>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>152</v>
       </c>
-      <c r="L84" t="n">
-        <v>40</v>
-      </c>
       <c r="M84" t="n">
+        <v>40</v>
+      </c>
+      <c r="N84" t="n">
         <v>2.485968514715948</v>
       </c>
-      <c r="N84" t="n">
+      <c r="O84" t="n">
         <v>32</v>
       </c>
-      <c r="O84" t="n">
+      <c r="P84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" t="n">
+        <v>140</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Senior Product Manager</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="C85" t="n">
         <v>10010</v>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>138800</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>130</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>35</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>19</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>16101</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>7.2</v>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>88</v>
       </c>
-      <c r="L85" t="n">
-        <v>40</v>
-      </c>
       <c r="M85" t="n">
+        <v>40</v>
+      </c>
+      <c r="N85" t="n">
         <v>3.876796714579056</v>
       </c>
-      <c r="N85" t="n">
+      <c r="O85" t="n">
         <v>32</v>
       </c>
-      <c r="O85" t="n">
+      <c r="P85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" t="n">
+        <v>141</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Senior Project Manager</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="C86" t="n">
         <v>98102</v>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>147200</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>130</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>35</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>19</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>18621</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Product</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>130</v>
       </c>
-      <c r="L86" t="n">
-        <v>40</v>
-      </c>
       <c r="M86" t="n">
+        <v>40</v>
+      </c>
+      <c r="N86" t="n">
         <v>5.297741273100616</v>
       </c>
-      <c r="N86" t="n">
+      <c r="O86" t="n">
         <v>32</v>
       </c>
-      <c r="O86" t="n">
+      <c r="P86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" t="n">
+        <v>142</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Senior Sales Executive</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="C87" t="n">
         <v>90008</v>
       </c>
-      <c r="C87" t="n">
+      <c r="D87" t="n">
         <v>134800</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>130</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>35</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>19</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>14963</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>6.2</v>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>146</v>
       </c>
-      <c r="L87" t="n">
-        <v>40</v>
-      </c>
       <c r="M87" t="n">
+        <v>40</v>
+      </c>
+      <c r="N87" t="n">
         <v>4.065708418891171</v>
       </c>
-      <c r="N87" t="n">
+      <c r="O87" t="n">
         <v>35</v>
       </c>
-      <c r="O87" t="n">
+      <c r="P87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" t="n">
+        <v>143</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Senior Sales Manager</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="C88" t="n">
         <v>90008</v>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>137200</v>
       </c>
-      <c r="D88" t="n">
+      <c r="E88" t="n">
         <v>130</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>35</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>19</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>15641</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>6.8</v>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>106</v>
       </c>
-      <c r="L88" t="n">
-        <v>40</v>
-      </c>
       <c r="M88" t="n">
+        <v>40</v>
+      </c>
+      <c r="N88" t="n">
         <v>4.106776180698152</v>
       </c>
-      <c r="N88" t="n">
+      <c r="O88" t="n">
         <v>32</v>
       </c>
-      <c r="O88" t="n">
+      <c r="P88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" t="n">
+        <v>144</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Senior Sales Representative</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="C89" t="n">
         <v>90008</v>
       </c>
-      <c r="C89" t="n">
+      <c r="D89" t="n">
         <v>136800</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>130</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>35</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>19</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>15527</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>6.7</v>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Sales</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>126</v>
       </c>
-      <c r="L89" t="n">
-        <v>40</v>
-      </c>
       <c r="M89" t="n">
+        <v>40</v>
+      </c>
+      <c r="N89" t="n">
         <v>4.210814510609172</v>
       </c>
-      <c r="N89" t="n">
+      <c r="O89" t="n">
         <v>33</v>
       </c>
-      <c r="O89" t="n">
+      <c r="P89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" t="n">
+        <v>145</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Senior UX Designer</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="C90" t="n">
         <v>78704</v>
       </c>
-      <c r="C90" t="n">
+      <c r="D90" t="n">
         <v>132800</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>130</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>35</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>19</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>14409</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>5.7</v>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>Non-Binary</t>
         </is>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>142</v>
       </c>
-      <c r="L90" t="n">
-        <v>40</v>
-      </c>
       <c r="M90" t="n">
+        <v>40</v>
+      </c>
+      <c r="N90" t="n">
         <v>3.148528405201917</v>
       </c>
-      <c r="N90" t="n">
+      <c r="O90" t="n">
         <v>31</v>
       </c>
-      <c r="O90" t="n">
+      <c r="P90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" t="n">
+        <v>146</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Software Engineer</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="C91" t="n">
         <v>94109</v>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>90500</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>105</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>30</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>17</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>6109</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>3.5</v>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>85</v>
       </c>
-      <c r="L91" t="n">
-        <v>40</v>
-      </c>
       <c r="M91" t="n">
+        <v>40</v>
+      </c>
+      <c r="N91" t="n">
         <v>2.061601642710472</v>
       </c>
-      <c r="N91" t="n">
+      <c r="O91" t="n">
         <v>25</v>
       </c>
-      <c r="O91" t="n">
+      <c r="P91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" t="n">
+        <v>147</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Staff Engineer</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="C92" t="n">
         <v>94108</v>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>115250</v>
       </c>
-      <c r="D92" t="n">
+      <c r="E92" t="n">
         <v>130</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>35</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>19</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>10430</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>8.1</v>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>104</v>
       </c>
-      <c r="L92" t="n">
-        <v>40</v>
-      </c>
       <c r="M92" t="n">
+        <v>40</v>
+      </c>
+      <c r="N92" t="n">
         <v>4.706365503080082</v>
       </c>
-      <c r="N92" t="n">
+      <c r="O92" t="n">
         <v>32</v>
       </c>
-      <c r="O92" t="n">
+      <c r="P92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" t="n">
+        <v>148</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Systems Administrator</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="C93" t="n">
         <v>94104</v>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>87200</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>105</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>30</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>17</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>5406</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>2.4</v>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>131</v>
       </c>
-      <c r="L93" t="n">
-        <v>40</v>
-      </c>
       <c r="M93" t="n">
+        <v>40</v>
+      </c>
+      <c r="N93" t="n">
         <v>1.568788501026694</v>
       </c>
-      <c r="N93" t="n">
+      <c r="O93" t="n">
         <v>26</v>
       </c>
-      <c r="O93" t="n">
+      <c r="P93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" t="n">
+        <v>149</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Technical Director</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="C94" t="n">
         <v>94103</v>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>220000</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>180</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>45</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>23</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>50600</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>10.5</v>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>120</v>
       </c>
-      <c r="L94" t="n">
-        <v>40</v>
-      </c>
       <c r="M94" t="n">
+        <v>40</v>
+      </c>
+      <c r="N94" t="n">
         <v>5.514031485284052</v>
       </c>
-      <c r="N94" t="n">
-        <v>40</v>
-      </c>
       <c r="O94" t="n">
+        <v>40</v>
+      </c>
+      <c r="P94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" t="n">
+        <v>150</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="C95" t="n">
         <v>94112</v>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>149000</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>130</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>35</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>19</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>18253</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>8.5</v>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>148</v>
       </c>
-      <c r="L95" t="n">
-        <v>40</v>
-      </c>
       <c r="M95" t="n">
+        <v>40</v>
+      </c>
+      <c r="N95" t="n">
         <v>4.640657084188912</v>
       </c>
-      <c r="N95" t="n">
+      <c r="O95" t="n">
         <v>30</v>
       </c>
-      <c r="O95" t="n">
+      <c r="P95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" t="n">
+        <v>151</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Technical Writer</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="C96" t="n">
         <v>94104</v>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>88400</v>
       </c>
-      <c r="D96" t="n">
+      <c r="E96" t="n">
         <v>105</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>30</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>17</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>5658</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>2.8</v>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>111</v>
       </c>
-      <c r="L96" t="n">
-        <v>40</v>
-      </c>
       <c r="M96" t="n">
+        <v>40</v>
+      </c>
+      <c r="N96" t="n">
         <v>1.88911704312115</v>
       </c>
-      <c r="N96" t="n">
+      <c r="O96" t="n">
         <v>32</v>
       </c>
-      <c r="O96" t="n">
+      <c r="P96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" t="n">
+        <v>152</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Technical Writer</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="C97" t="n">
         <v>98103</v>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>88100</v>
       </c>
-      <c r="D97" t="n">
+      <c r="E97" t="n">
         <v>105</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>30</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>17</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>5594</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>2.7</v>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Engineering</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>151</v>
       </c>
-      <c r="L97" t="n">
-        <v>40</v>
-      </c>
       <c r="M97" t="n">
+        <v>40</v>
+      </c>
+      <c r="N97" t="n">
         <v>1.702943189596167</v>
       </c>
-      <c r="N97" t="n">
+      <c r="O97" t="n">
         <v>28</v>
       </c>
-      <c r="O97" t="n">
+      <c r="P97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" t="n">
+        <v>153</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>UX Designer</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="C98" t="n">
         <v>78723</v>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>95900</v>
       </c>
-      <c r="D98" t="n">
+      <c r="E98" t="n">
         <v>105</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>30</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>17</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>7336</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>5.3</v>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>86</v>
       </c>
-      <c r="L98" t="n">
-        <v>40</v>
-      </c>
       <c r="M98" t="n">
+        <v>40</v>
+      </c>
+      <c r="N98" t="n">
         <v>2.715947980835045</v>
       </c>
-      <c r="N98" t="n">
+      <c r="O98" t="n">
         <v>28</v>
       </c>
-      <c r="O98" t="n">
+      <c r="P98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" t="n">
+        <v>154</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>UX Researcher</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="C99" t="n">
         <v>78712</v>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>88100</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>105</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>30</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>17</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>5594</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>2.7</v>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>74</v>
       </c>
-      <c r="L99" t="n">
-        <v>40</v>
-      </c>
       <c r="M99" t="n">
+        <v>40</v>
+      </c>
+      <c r="N99" t="n">
         <v>2.149212867898699</v>
       </c>
-      <c r="N99" t="n">
+      <c r="O99" t="n">
         <v>31</v>
       </c>
-      <c r="O99" t="n">
+      <c r="P99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" t="n">
+        <v>155</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>UX Researcher</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="C100" t="n">
         <v>78703</v>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>87800</v>
       </c>
-      <c r="D100" t="n">
+      <c r="E100" t="n">
         <v>105</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>30</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>17</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>5531</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>2.6</v>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>121</v>
       </c>
-      <c r="L100" t="n">
-        <v>40</v>
-      </c>
       <c r="M100" t="n">
+        <v>40</v>
+      </c>
+      <c r="N100" t="n">
         <v>1.634496919917864</v>
       </c>
-      <c r="N100" t="n">
+      <c r="O100" t="n">
         <v>24</v>
       </c>
-      <c r="O100" t="n">
+      <c r="P100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" t="n">
+        <v>156</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>VP of Technology</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="C101" t="n">
         <v>98109</v>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>300000</v>
       </c>
-      <c r="D101" t="n">
+      <c r="E101" t="n">
         <v>230</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>55</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>27</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>90000</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>12.3</v>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Executive</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>67</v>
       </c>
-      <c r="L101" t="n">
-        <v>40</v>
-      </c>
       <c r="M101" t="n">
+        <v>40</v>
+      </c>
+      <c r="N101" t="n">
         <v>3.958932238193019</v>
       </c>
-      <c r="N101" t="n">
+      <c r="O101" t="n">
         <v>35</v>
       </c>
-      <c r="O101" t="n">
+      <c r="P101" t="n">
         <v>0</v>
       </c>
     </row>

--- a/01-Fully-Loaded-Cost-Predictor/updated_data/updated_data.xlsx
+++ b/01-Fully-Loaded-Cost-Predictor/updated_data/updated_data.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SAP Personnel #</t>
+          <t>Current_Role</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Current_Role</t>
+          <t>Zip Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Zip Code</t>
+          <t>Employee_ID</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -516,16 +516,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>94103</v>
+      </c>
+      <c r="C2" t="n">
         <v>57</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Senior Software Engineer</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>94103</v>
       </c>
       <c r="D2" t="n">
         <v>130800</v>
@@ -572,16 +572,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Associate Data Scientist</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>94111</v>
+      </c>
+      <c r="C3" t="n">
         <v>58</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Associate Data Scientist</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>94111</v>
       </c>
       <c r="D3" t="n">
         <v>74250</v>
@@ -628,16 +628,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Associate Product Manager</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C4" t="n">
         <v>59</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Associate Product Manager</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10009</v>
       </c>
       <c r="D4" t="n">
         <v>125850</v>
@@ -684,16 +684,16 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60605</v>
+      </c>
+      <c r="C5" t="n">
         <v>60</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Business Analyst</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60605</v>
       </c>
       <c r="D5" t="n">
         <v>84750</v>
@@ -740,16 +740,16 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chief Operating Officer</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2101</v>
+      </c>
+      <c r="C6" t="n">
         <v>61</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Chief Operating Officer</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2101</v>
       </c>
       <c r="D6" t="n">
         <v>300000</v>
@@ -796,16 +796,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chief Technology Officer</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>98102</v>
+      </c>
+      <c r="C7" t="n">
         <v>62</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Chief Technology Officer</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>98102</v>
       </c>
       <c r="D7" t="n">
         <v>300000</v>
@@ -852,16 +852,16 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Content Strategist</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>60605</v>
+      </c>
+      <c r="C8" t="n">
         <v>63</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Content Strategist</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>60605</v>
       </c>
       <c r="D8" t="n">
         <v>97700</v>
@@ -908,16 +908,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Content Strategist</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C9" t="n">
         <v>64</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Content Strategist</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10005</v>
       </c>
       <c r="D9" t="n">
         <v>89300</v>
@@ -964,16 +964,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Content Writer</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C10" t="n">
         <v>65</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Content Writer</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>10005</v>
       </c>
       <c r="D10" t="n">
         <v>89600</v>
@@ -1020,16 +1020,16 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Customer Success Manager</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C11" t="n">
         <v>66</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Customer Success Manager</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>10002</v>
       </c>
       <c r="D11" t="n">
         <v>129450</v>
@@ -1076,16 +1076,16 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Customer Support Specialist</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C12" t="n">
         <v>67</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Customer Support Specialist</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10003</v>
       </c>
       <c r="D12" t="n">
         <v>93400</v>
@@ -1132,16 +1132,16 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>94104</v>
+      </c>
+      <c r="C13" t="n">
         <v>68</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Data Analyst</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>94104</v>
       </c>
       <c r="D13" t="n">
         <v>84500</v>
@@ -1188,16 +1188,16 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94104</v>
+      </c>
+      <c r="C14" t="n">
         <v>69</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Data Analyst</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>94104</v>
       </c>
       <c r="D14" t="n">
         <v>80750</v>
@@ -1244,16 +1244,16 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Data Analyst</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94102</v>
+      </c>
+      <c r="C15" t="n">
         <v>70</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Data Analyst</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>94102</v>
       </c>
       <c r="D15" t="n">
         <v>83000</v>
@@ -1300,16 +1300,16 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94102</v>
+      </c>
+      <c r="C16" t="n">
         <v>71</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Data Scientist</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>94102</v>
       </c>
       <c r="D16" t="n">
         <v>91400</v>
@@ -1356,16 +1356,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Design Director</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78701</v>
+      </c>
+      <c r="C17" t="n">
         <v>72</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Design Director</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>78701</v>
       </c>
       <c r="D17" t="n">
         <v>215200</v>
@@ -1412,16 +1412,16 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Design Director</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>78702</v>
+      </c>
+      <c r="C18" t="n">
         <v>73</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Design Director</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>78702</v>
       </c>
       <c r="D18" t="n">
         <v>217600</v>
@@ -1468,16 +1468,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>94112</v>
+      </c>
+      <c r="C19" t="n">
         <v>74</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>94112</v>
       </c>
       <c r="D19" t="n">
         <v>92600</v>
@@ -1524,16 +1524,16 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Design Director</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>78702</v>
+      </c>
+      <c r="C20" t="n">
         <v>75</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Design Director</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>78702</v>
       </c>
       <c r="D20" t="n">
         <v>218200</v>
@@ -1580,16 +1580,16 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Director of HR</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2108</v>
+      </c>
+      <c r="C21" t="n">
         <v>76</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Director of HR</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2108</v>
       </c>
       <c r="D21" t="n">
         <v>220000</v>
@@ -1636,16 +1636,16 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Director of Operations</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>98106</v>
+      </c>
+      <c r="C22" t="n">
         <v>77</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Director of Operations</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>98106</v>
       </c>
       <c r="D22" t="n">
         <v>211000</v>
@@ -1692,16 +1692,16 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Director of Product</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C23" t="n">
         <v>78</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Director of Product</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>10010</v>
       </c>
       <c r="D23" t="n">
         <v>213400</v>
@@ -1748,16 +1748,16 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Engineering Manager</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>94104</v>
+      </c>
+      <c r="C24" t="n">
         <v>79</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Engineering Manager</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>94104</v>
       </c>
       <c r="D24" t="n">
         <v>155100</v>
@@ -1804,16 +1804,16 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>60605</v>
+      </c>
+      <c r="C25" t="n">
         <v>80</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Financial Analyst</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>60605</v>
       </c>
       <c r="D25" t="n">
         <v>80750</v>
@@ -1860,16 +1860,16 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>60601</v>
+      </c>
+      <c r="C26" t="n">
         <v>81</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Financial Analyst</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>60601</v>
       </c>
       <c r="D26" t="n">
         <v>84750</v>
@@ -1916,16 +1916,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>60605</v>
+      </c>
+      <c r="C27" t="n">
         <v>82</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Financial Analyst</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>60605</v>
       </c>
       <c r="D27" t="n">
         <v>84750</v>
@@ -1972,16 +1972,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>60601</v>
+      </c>
+      <c r="C28" t="n">
         <v>83</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Financial Analyst</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>60601</v>
       </c>
       <c r="D28" t="n">
         <v>83000</v>
@@ -2028,16 +2028,16 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Financial Planning Analyst</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>60605</v>
+      </c>
+      <c r="C29" t="n">
         <v>84</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Financial Planning Analyst</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>60605</v>
       </c>
       <c r="D29" t="n">
         <v>84000</v>
@@ -2084,16 +2084,16 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>HR Business Partner</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C30" t="n">
         <v>85</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>HR Business Partner</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2107</v>
       </c>
       <c r="D30" t="n">
         <v>92300</v>
@@ -2140,16 +2140,16 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HR Business Partner</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C31" t="n">
         <v>86</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>HR Business Partner</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>2107</v>
       </c>
       <c r="D31" t="n">
         <v>93500</v>
@@ -2196,16 +2196,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>HR Business Partner</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C32" t="n">
         <v>87</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>HR Business Partner</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2107</v>
       </c>
       <c r="D32" t="n">
         <v>93800</v>
@@ -2252,16 +2252,16 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>HR Coordinator</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C33" t="n">
         <v>88</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>HR Coordinator</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>2107</v>
       </c>
       <c r="D33" t="n">
         <v>65800</v>
@@ -2308,16 +2308,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>HR Coordinator</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C34" t="n">
         <v>89</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>HR Coordinator</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>2107</v>
       </c>
       <c r="D34" t="n">
         <v>69000</v>
@@ -2364,16 +2364,16 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C35" t="n">
         <v>90</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>HR Manager</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>2107</v>
       </c>
       <c r="D35" t="n">
         <v>141600</v>
@@ -2420,16 +2420,16 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HR Manager</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C36" t="n">
         <v>91</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>HR Manager</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>2107</v>
       </c>
       <c r="D36" t="n">
         <v>141600</v>
@@ -2476,16 +2476,16 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HR Specialist</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2107</v>
+      </c>
+      <c r="C37" t="n">
         <v>92</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>HR Specialist</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>2107</v>
       </c>
       <c r="D37" t="n">
         <v>99700</v>
@@ -2532,16 +2532,16 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Junior Data Analyst</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>94111</v>
+      </c>
+      <c r="C38" t="n">
         <v>93</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Junior Data Analyst</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>94111</v>
       </c>
       <c r="D38" t="n">
         <v>78000</v>
@@ -2588,16 +2588,16 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Junior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>94110</v>
+      </c>
+      <c r="C39" t="n">
         <v>94</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Junior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>94110</v>
       </c>
       <c r="D39" t="n">
         <v>64500</v>
@@ -2644,16 +2644,16 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Junior Data Scientist</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>94111</v>
+      </c>
+      <c r="C40" t="n">
         <v>95</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Junior Data Scientist</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>94111</v>
       </c>
       <c r="D40" t="n">
         <v>64500</v>
@@ -2700,16 +2700,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Junior Product Designer</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>78731</v>
+      </c>
+      <c r="C41" t="n">
         <v>96</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Junior Product Designer</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>78731</v>
       </c>
       <c r="D41" t="n">
         <v>64750</v>
@@ -2756,16 +2756,16 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>94111</v>
+      </c>
+      <c r="C42" t="n">
         <v>97</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Junior Software Engineer</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>94111</v>
       </c>
       <c r="D42" t="n">
         <v>63750</v>
@@ -2812,16 +2812,16 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Junior Software Engineer</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>94111</v>
+      </c>
+      <c r="C43" t="n">
         <v>98</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Junior Software Engineer</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>94111</v>
       </c>
       <c r="D43" t="n">
         <v>63750</v>
@@ -2868,16 +2868,16 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Junior UX Designer</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>78731</v>
+      </c>
+      <c r="C44" t="n">
         <v>99</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Junior UX Designer</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>78731</v>
       </c>
       <c r="D44" t="n">
         <v>63000</v>
@@ -2924,16 +2924,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Lead Data Engineer</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>94108</v>
+      </c>
+      <c r="C45" t="n">
         <v>100</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Lead Data Engineer</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>94108</v>
       </c>
       <c r="D45" t="n">
         <v>146600</v>
@@ -2980,16 +2980,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Lead Data Scientist</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>94112</v>
+      </c>
+      <c r="C46" t="n">
         <v>101</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Lead Data Scientist</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>94112</v>
       </c>
       <c r="D46" t="n">
         <v>146200</v>
@@ -3036,16 +3036,16 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Lead DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>98106</v>
+      </c>
+      <c r="C47" t="n">
         <v>102</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Lead DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>98106</v>
       </c>
       <c r="D47" t="n">
         <v>146600</v>
@@ -3092,16 +3092,16 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lead Product Manager</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C48" t="n">
         <v>103</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Lead Product Manager</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10010</v>
       </c>
       <c r="D48" t="n">
         <v>153750</v>
@@ -3148,16 +3148,16 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Lead Software Developer</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>94108</v>
+      </c>
+      <c r="C49" t="n">
         <v>104</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Lead Software Developer</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>94108</v>
       </c>
       <c r="D49" t="n">
         <v>145400</v>
@@ -3204,16 +3204,16 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lead Software Engineer</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>98106</v>
+      </c>
+      <c r="C50" t="n">
         <v>105</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Lead Software Engineer</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>98106</v>
       </c>
       <c r="D50" t="n">
         <v>144200</v>
@@ -3260,16 +3260,16 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Lead UX Designer</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>78704</v>
+      </c>
+      <c r="C51" t="n">
         <v>106</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Lead UX Designer</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>78704</v>
       </c>
       <c r="D51" t="n">
         <v>141000</v>
@@ -3316,16 +3316,16 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lead UX Designer</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>78712</v>
+      </c>
+      <c r="C52" t="n">
         <v>107</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Lead UX Designer</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>78712</v>
       </c>
       <c r="D52" t="n">
         <v>145800</v>
@@ -3372,16 +3372,16 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Marketing Coordinator</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C53" t="n">
         <v>108</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Marketing Coordinator</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>10005</v>
       </c>
       <c r="D53" t="n">
         <v>66800</v>
@@ -3428,16 +3428,16 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Marketing Manager</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C54" t="n">
         <v>109</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Marketing Manager</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>10003</v>
       </c>
       <c r="D54" t="n">
         <v>136650</v>
@@ -3484,16 +3484,16 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>60601</v>
+      </c>
+      <c r="C55" t="n">
         <v>110</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Marketing Specialist</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>60601</v>
       </c>
       <c r="D55" t="n">
         <v>92500</v>
@@ -3540,16 +3540,16 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C56" t="n">
         <v>111</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Marketing Specialist</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>10005</v>
       </c>
       <c r="D56" t="n">
         <v>96100</v>
@@ -3596,16 +3596,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Operations Analyst</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>98101</v>
+      </c>
+      <c r="C57" t="n">
         <v>112</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Operations Analyst</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>98101</v>
       </c>
       <c r="D57" t="n">
         <v>85750</v>
@@ -3652,16 +3652,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Operations Analyst</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>98101</v>
+      </c>
+      <c r="C58" t="n">
         <v>113</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Operations Analyst</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>98101</v>
       </c>
       <c r="D58" t="n">
         <v>84000</v>
@@ -3708,16 +3708,16 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Operations Coordinator</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>98101</v>
+      </c>
+      <c r="C59" t="n">
         <v>114</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Operations Coordinator</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>98101</v>
       </c>
       <c r="D59" t="n">
         <v>66800</v>
@@ -3764,16 +3764,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Principal Engineer</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>98106</v>
+      </c>
+      <c r="C60" t="n">
         <v>115</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Principal Engineer</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>98106</v>
       </c>
       <c r="D60" t="n">
         <v>189000</v>
@@ -3820,16 +3820,16 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Principal Engineer</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>98102</v>
+      </c>
+      <c r="C61" t="n">
         <v>116</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Principal Engineer</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>98102</v>
       </c>
       <c r="D61" t="n">
         <v>190000</v>
@@ -3876,16 +3876,16 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Principal Product Designer</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>78704</v>
+      </c>
+      <c r="C62" t="n">
         <v>117</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Principal Product Designer</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>78704</v>
       </c>
       <c r="D62" t="n">
         <v>179500</v>
@@ -3932,16 +3932,16 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Principal Product Manager</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C63" t="n">
         <v>118</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Principal Product Manager</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>10010</v>
       </c>
       <c r="D63" t="n">
         <v>183000</v>
@@ -3988,16 +3988,16 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Principal Software Engineer</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>98102</v>
+      </c>
+      <c r="C64" t="n">
         <v>119</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Principal Software Engineer</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>98102</v>
       </c>
       <c r="D64" t="n">
         <v>190000</v>
@@ -4044,16 +4044,16 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Product Designer</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>78704</v>
+      </c>
+      <c r="C65" t="n">
         <v>120</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Product Designer</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>78704</v>
       </c>
       <c r="D65" t="n">
         <v>97700</v>
@@ -4100,16 +4100,16 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Product Director</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C66" t="n">
         <v>121</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Product Director</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>10010</v>
       </c>
       <c r="D66" t="n">
         <v>209200</v>
@@ -4156,16 +4156,16 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Product Lead</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C67" t="n">
         <v>122</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Product Lead</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>10010</v>
       </c>
       <c r="D67" t="n">
         <v>147400</v>
@@ -4212,16 +4212,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Product Manager</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C68" t="n">
         <v>123</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Product Manager</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>10004</v>
       </c>
       <c r="D68" t="n">
         <v>135750</v>
@@ -4268,16 +4268,16 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Product Marketing Manager</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C69" t="n">
         <v>124</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Product Marketing Manager</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>10005</v>
       </c>
       <c r="D69" t="n">
         <v>145200</v>
@@ -4324,16 +4324,16 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Project Manager</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>98103</v>
+      </c>
+      <c r="C70" t="n">
         <v>125</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Project Manager</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>98103</v>
       </c>
       <c r="D70" t="n">
         <v>141150</v>
@@ -4380,16 +4380,16 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sales Director</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>90010</v>
+      </c>
+      <c r="C71" t="n">
         <v>126</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Sales Director</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>90010</v>
       </c>
       <c r="D71" t="n">
         <v>209800</v>
@@ -4436,16 +4436,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sales Representative</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C72" t="n">
         <v>127</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Sales Representative</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>90008</v>
       </c>
       <c r="D72" t="n">
         <v>97100</v>
@@ -4492,16 +4492,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Senior Account Executive</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C73" t="n">
         <v>128</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Senior Account Executive</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>90008</v>
       </c>
       <c r="D73" t="n">
         <v>135200</v>
@@ -4548,16 +4548,16 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Senior Account Executive</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C74" t="n">
         <v>129</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Senior Account Executive</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>90008</v>
       </c>
       <c r="D74" t="n">
         <v>136000</v>
@@ -4604,16 +4604,16 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Senior Account Manager</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>90011</v>
+      </c>
+      <c r="C75" t="n">
         <v>130</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Senior Account Manager</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>90011</v>
       </c>
       <c r="D75" t="n">
         <v>136000</v>
@@ -4660,16 +4660,16 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Senior Account Manager</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C76" t="n">
         <v>131</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Senior Account Manager</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>90008</v>
       </c>
       <c r="D76" t="n">
         <v>135200</v>
@@ -4716,16 +4716,16 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Senior Business Analyst</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>60604</v>
+      </c>
+      <c r="C77" t="n">
         <v>132</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Senior Business Analyst</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>60604</v>
       </c>
       <c r="D77" t="n">
         <v>131600</v>
@@ -4772,16 +4772,16 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Senior Content Writer</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C78" t="n">
         <v>133</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Senior Content Writer</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>10004</v>
       </c>
       <c r="D78" t="n">
         <v>130400</v>
@@ -4828,16 +4828,16 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Senior DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>94108</v>
+      </c>
+      <c r="C79" t="n">
         <v>134</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Senior DevOps Engineer</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>94108</v>
       </c>
       <c r="D79" t="n">
         <v>143600</v>
@@ -4884,16 +4884,16 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Senior Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>60607</v>
+      </c>
+      <c r="C80" t="n">
         <v>135</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Senior Financial Analyst</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>60607</v>
       </c>
       <c r="D80" t="n">
         <v>134800</v>
@@ -4940,16 +4940,16 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Senior Financial Analyst</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>60602</v>
+      </c>
+      <c r="C81" t="n">
         <v>136</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Senior Financial Analyst</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>60602</v>
       </c>
       <c r="D81" t="n">
         <v>146400</v>
@@ -4996,16 +4996,16 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Senior HR Manager</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2104</v>
+      </c>
+      <c r="C82" t="n">
         <v>137</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Senior HR Manager</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>2104</v>
       </c>
       <c r="D82" t="n">
         <v>139600</v>
@@ -5052,16 +5052,16 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Senior Marketing Manager</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C83" t="n">
         <v>138</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Senior Marketing Manager</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>10004</v>
       </c>
       <c r="D83" t="n">
         <v>133200</v>
@@ -5108,16 +5108,16 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Senior Marketing Specialist</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C84" t="n">
         <v>139</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Senior Marketing Specialist</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>10004</v>
       </c>
       <c r="D84" t="n">
         <v>131600</v>
@@ -5164,16 +5164,16 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Senior Product Manager</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C85" t="n">
         <v>140</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Senior Product Manager</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>10010</v>
       </c>
       <c r="D85" t="n">
         <v>138800</v>
@@ -5220,16 +5220,16 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Senior Project Manager</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>98102</v>
+      </c>
+      <c r="C86" t="n">
         <v>141</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Senior Project Manager</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>98102</v>
       </c>
       <c r="D86" t="n">
         <v>147200</v>
@@ -5276,16 +5276,16 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Senior Sales Executive</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C87" t="n">
         <v>142</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Senior Sales Executive</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>90008</v>
       </c>
       <c r="D87" t="n">
         <v>134800</v>
@@ -5332,16 +5332,16 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Senior Sales Manager</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C88" t="n">
         <v>143</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Senior Sales Manager</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>90008</v>
       </c>
       <c r="D88" t="n">
         <v>137200</v>
@@ -5388,16 +5388,16 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Senior Sales Representative</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>90008</v>
+      </c>
+      <c r="C89" t="n">
         <v>144</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Senior Sales Representative</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>90008</v>
       </c>
       <c r="D89" t="n">
         <v>136800</v>
@@ -5444,16 +5444,16 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Senior UX Designer</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>78704</v>
+      </c>
+      <c r="C90" t="n">
         <v>145</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Senior UX Designer</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>78704</v>
       </c>
       <c r="D90" t="n">
         <v>132800</v>
@@ -5500,16 +5500,16 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>94109</v>
+      </c>
+      <c r="C91" t="n">
         <v>146</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Software Engineer</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>94109</v>
       </c>
       <c r="D91" t="n">
         <v>90500</v>
@@ -5556,16 +5556,16 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Staff Engineer</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>94108</v>
+      </c>
+      <c r="C92" t="n">
         <v>147</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Staff Engineer</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>94108</v>
       </c>
       <c r="D92" t="n">
         <v>115250</v>
@@ -5612,16 +5612,16 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Systems Administrator</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>94104</v>
+      </c>
+      <c r="C93" t="n">
         <v>148</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Systems Administrator</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>94104</v>
       </c>
       <c r="D93" t="n">
         <v>87200</v>
@@ -5668,16 +5668,16 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Technical Director</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>94103</v>
+      </c>
+      <c r="C94" t="n">
         <v>149</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Technical Director</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>94103</v>
       </c>
       <c r="D94" t="n">
         <v>220000</v>
@@ -5724,16 +5724,16 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Technical Lead</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>94112</v>
+      </c>
+      <c r="C95" t="n">
         <v>150</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Technical Lead</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>94112</v>
       </c>
       <c r="D95" t="n">
         <v>149000</v>
@@ -5780,16 +5780,16 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Technical Writer</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>94104</v>
+      </c>
+      <c r="C96" t="n">
         <v>151</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Technical Writer</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>94104</v>
       </c>
       <c r="D96" t="n">
         <v>88400</v>
@@ -5836,16 +5836,16 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Technical Writer</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>98103</v>
+      </c>
+      <c r="C97" t="n">
         <v>152</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Technical Writer</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>98103</v>
       </c>
       <c r="D97" t="n">
         <v>88100</v>
@@ -5892,16 +5892,16 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>UX Designer</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>78723</v>
+      </c>
+      <c r="C98" t="n">
         <v>153</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>UX Designer</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>78723</v>
       </c>
       <c r="D98" t="n">
         <v>95900</v>
@@ -5948,16 +5948,16 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>UX Researcher</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>78712</v>
+      </c>
+      <c r="C99" t="n">
         <v>154</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>UX Researcher</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>78712</v>
       </c>
       <c r="D99" t="n">
         <v>88100</v>
@@ -6004,16 +6004,16 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>UX Researcher</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>78703</v>
+      </c>
+      <c r="C100" t="n">
         <v>155</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>UX Researcher</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>78703</v>
       </c>
       <c r="D100" t="n">
         <v>87800</v>
@@ -6060,16 +6060,16 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>VP of Technology</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>98109</v>
+      </c>
+      <c r="C101" t="n">
         <v>156</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>VP of Technology</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>98109</v>
       </c>
       <c r="D101" t="n">
         <v>300000</v>
